--- a/band_via_np.xlsx
+++ b/band_via_np.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fluky\Desktop\New folder (2)\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +57,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +143,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +178,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +354,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -438,7 +455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -533,7 +550,7 @@
         <v>716072</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,7 +645,7 @@
         <v>1722375</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -723,7 +740,7 @@
         <v>1425729</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -818,7 +835,7 @@
         <v>730003</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -913,7 +930,7 @@
         <v>920188</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1008,7 +1025,7 @@
         <v>1005080</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>982096</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1198,7 +1215,7 @@
         <v>1283811</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1293,7 +1310,7 @@
         <v>957486</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1388,7 +1405,7 @@
         <v>939105</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>1734220</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1578,7 +1595,7 @@
         <v>2465497</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1673,7 +1690,7 @@
         <v>2006240</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1768,7 +1785,7 @@
         <v>1496209</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1863,7 +1880,7 @@
         <v>1786325</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>871339</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2053,7 +2070,7 @@
         <v>2094832</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>1776391</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2243,7 +2260,7 @@
         <v>903295</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>

--- a/band_via_np.xlsx
+++ b/band_via_np.xlsx
@@ -9,13 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>average</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,15 +363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -454,8 +466,11 @@
       <c r="AE1">
         <v>30</v>
       </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,8 +564,20 @@
       <c r="AE2">
         <v>716072</v>
       </c>
+      <c r="AF2">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1334879.142857143</v>
+      </c>
+      <c r="AG2">
+        <f>AVERAGE(J2:AF2)</f>
+        <v>1099126.5279503106</v>
+      </c>
+      <c r="AH2">
+        <f>AVERAGE(AF2:AG2)</f>
+        <v>1217002.8354037269</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -644,8 +671,20 @@
       <c r="AE3">
         <v>1722375</v>
       </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF41" si="0">AVERAGE(B3:H3)</f>
+        <v>1727554.142857143</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG41" si="1">AVERAGE(J3:AF3)</f>
+        <v>1575767.2670807452</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH41" si="2">AVERAGE(AF3:AG3)</f>
+        <v>1651660.7049689442</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -739,8 +778,20 @@
       <c r="AE4">
         <v>1425729</v>
       </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>1733332.4285714286</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="1"/>
+        <v>1466412.8447204968</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="2"/>
+        <v>1599872.6366459627</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -834,8 +885,20 @@
       <c r="AE5">
         <v>730003</v>
       </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>1376649.857142857</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>1189053.3416149069</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>1282851.599378882</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,8 +992,20 @@
       <c r="AE6">
         <v>920188</v>
       </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>1465093.4285714286</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>1215584.8881987578</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="2"/>
+        <v>1340339.1583850933</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1024,8 +1099,20 @@
       <c r="AE7">
         <v>1005080</v>
       </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>1497288.2857142857</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>1294895.099378882</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>1396091.6925465837</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1119,8 +1206,20 @@
       <c r="AE8">
         <v>982096</v>
       </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>1363338.857142857</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="1"/>
+        <v>1228960.2546583852</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>1296149.5559006212</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1214,8 +1313,20 @@
       <c r="AE9">
         <v>1283811</v>
       </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>1480304.4285714286</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="1"/>
+        <v>1301590.9316770188</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>1390947.6801242237</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1309,8 +1420,20 @@
       <c r="AE10">
         <v>957486</v>
       </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>1301244.5714285714</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>1093631.2857142857</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>1197437.9285714286</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1404,8 +1527,20 @@
       <c r="AE11">
         <v>939105</v>
       </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>1304983.857142857</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="1"/>
+        <v>1112033.950310559</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>1208508.9037267081</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1499,8 +1634,20 @@
       <c r="AE12">
         <v>1734220</v>
       </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>1567122.5714285714</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>1858180.8509316773</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>1712651.7111801244</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1594,8 +1741,20 @@
       <c r="AE13">
         <v>2465497</v>
       </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>2057253.857142857</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>2282382.6459627328</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>2169818.2515527951</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1689,8 +1848,20 @@
       <c r="AE14">
         <v>2006240</v>
       </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>1676077.7142857143</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>1944132.3788819876</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>1810105.0465838509</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1784,8 +1955,20 @@
       <c r="AE15">
         <v>1496209</v>
       </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>1410069.5714285714</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>1708816.7204968946</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>1559443.1459627328</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1879,8 +2062,20 @@
       <c r="AE16">
         <v>1786325</v>
       </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>1616384.4285714286</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>1865021.6273291924</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>1740703.0279503106</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1974,8 +2169,20 @@
       <c r="AE17">
         <v>871339</v>
       </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>1408893.857142857</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="1"/>
+        <v>1212049.0807453417</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="2"/>
+        <v>1310471.4689440993</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2069,8 +2276,20 @@
       <c r="AE18">
         <v>2094832</v>
       </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>1818745.4285714286</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="1"/>
+        <v>1958234.8881987575</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="2"/>
+        <v>1888490.1583850931</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2164,8 +2383,20 @@
       <c r="AE19">
         <v>1776391</v>
       </c>
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>1818887.2857142857</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>1717834.5341614906</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="2"/>
+        <v>1768360.9099378882</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2259,8 +2490,20 @@
       <c r="AE20">
         <v>903295</v>
       </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>1330740.4285714286</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="1"/>
+        <v>1219305.4534161491</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="2"/>
+        <v>1275022.9409937889</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2353,6 +2596,2158 @@
       </c>
       <c r="AE21">
         <v>1235526</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>1448989.7142857143</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="1"/>
+        <v>1390365.857142857</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>1419677.7857142857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2122809</v>
+      </c>
+      <c r="C22">
+        <v>1880151</v>
+      </c>
+      <c r="D22">
+        <v>1575768</v>
+      </c>
+      <c r="E22">
+        <v>1477328</v>
+      </c>
+      <c r="F22">
+        <v>1672716</v>
+      </c>
+      <c r="G22">
+        <v>1813328</v>
+      </c>
+      <c r="H22">
+        <v>1593695</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>1673692</v>
+      </c>
+      <c r="K22">
+        <v>789754</v>
+      </c>
+      <c r="L22">
+        <v>1599821</v>
+      </c>
+      <c r="M22">
+        <v>1843954</v>
+      </c>
+      <c r="N22">
+        <v>1517278</v>
+      </c>
+      <c r="O22">
+        <v>1406236</v>
+      </c>
+      <c r="P22">
+        <v>1591563</v>
+      </c>
+      <c r="Q22">
+        <v>1701244</v>
+      </c>
+      <c r="R22">
+        <v>1556337</v>
+      </c>
+      <c r="S22">
+        <v>1712606</v>
+      </c>
+      <c r="T22">
+        <v>1518523</v>
+      </c>
+      <c r="U22">
+        <v>1894913</v>
+      </c>
+      <c r="V22">
+        <v>1633004</v>
+      </c>
+      <c r="W22">
+        <v>1774094</v>
+      </c>
+      <c r="X22">
+        <v>1634065</v>
+      </c>
+      <c r="Y22">
+        <v>1486289</v>
+      </c>
+      <c r="Z22">
+        <v>1398898</v>
+      </c>
+      <c r="AA22">
+        <v>1560827</v>
+      </c>
+      <c r="AB22">
+        <v>1855781</v>
+      </c>
+      <c r="AC22">
+        <v>1242871</v>
+      </c>
+      <c r="AD22">
+        <v>1560836</v>
+      </c>
+      <c r="AE22">
+        <v>1729383</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>1733685</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="1"/>
+        <v>1583289.3043478262</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="2"/>
+        <v>1658487.1521739131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2220648</v>
+      </c>
+      <c r="C23">
+        <v>2379622</v>
+      </c>
+      <c r="D23">
+        <v>1400371</v>
+      </c>
+      <c r="E23">
+        <v>1381875</v>
+      </c>
+      <c r="F23">
+        <v>1460313</v>
+      </c>
+      <c r="G23">
+        <v>1922803</v>
+      </c>
+      <c r="H23">
+        <v>1384800</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>1714593</v>
+      </c>
+      <c r="K23">
+        <v>1597577</v>
+      </c>
+      <c r="L23">
+        <v>945330</v>
+      </c>
+      <c r="M23">
+        <v>1594955</v>
+      </c>
+      <c r="N23">
+        <v>1262163</v>
+      </c>
+      <c r="O23">
+        <v>1141293</v>
+      </c>
+      <c r="P23">
+        <v>1635008</v>
+      </c>
+      <c r="Q23">
+        <v>1274879</v>
+      </c>
+      <c r="R23">
+        <v>1593576</v>
+      </c>
+      <c r="S23">
+        <v>1517439</v>
+      </c>
+      <c r="T23">
+        <v>1432810</v>
+      </c>
+      <c r="U23">
+        <v>1725236</v>
+      </c>
+      <c r="V23">
+        <v>1414019</v>
+      </c>
+      <c r="W23">
+        <v>1481655</v>
+      </c>
+      <c r="X23">
+        <v>1257804</v>
+      </c>
+      <c r="Y23">
+        <v>2067086</v>
+      </c>
+      <c r="Z23">
+        <v>1320217</v>
+      </c>
+      <c r="AA23">
+        <v>1263684</v>
+      </c>
+      <c r="AB23">
+        <v>1292732</v>
+      </c>
+      <c r="AC23">
+        <v>1339098</v>
+      </c>
+      <c r="AD23">
+        <v>1725443</v>
+      </c>
+      <c r="AE23">
+        <v>1424470</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>1735776</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="1"/>
+        <v>1467688.8260869565</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="2"/>
+        <v>1601732.4130434783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1724202</v>
+      </c>
+      <c r="C24">
+        <v>2277490</v>
+      </c>
+      <c r="D24">
+        <v>941595</v>
+      </c>
+      <c r="E24">
+        <v>1037135</v>
+      </c>
+      <c r="F24">
+        <v>1067791</v>
+      </c>
+      <c r="G24">
+        <v>1617917</v>
+      </c>
+      <c r="H24">
+        <v>968306</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>1380717</v>
+      </c>
+      <c r="K24">
+        <v>1777777</v>
+      </c>
+      <c r="L24">
+        <v>1400120</v>
+      </c>
+      <c r="M24">
+        <v>819523</v>
+      </c>
+      <c r="N24">
+        <v>880985</v>
+      </c>
+      <c r="O24">
+        <v>1204753</v>
+      </c>
+      <c r="P24">
+        <v>998142</v>
+      </c>
+      <c r="Q24">
+        <v>1068587</v>
+      </c>
+      <c r="R24">
+        <v>1338334</v>
+      </c>
+      <c r="S24">
+        <v>953095</v>
+      </c>
+      <c r="T24">
+        <v>953942</v>
+      </c>
+      <c r="U24">
+        <v>910164</v>
+      </c>
+      <c r="V24">
+        <v>1035595</v>
+      </c>
+      <c r="W24">
+        <v>949295</v>
+      </c>
+      <c r="X24">
+        <v>925046</v>
+      </c>
+      <c r="Y24">
+        <v>1924794</v>
+      </c>
+      <c r="Z24">
+        <v>1530671</v>
+      </c>
+      <c r="AA24">
+        <v>1066678</v>
+      </c>
+      <c r="AB24">
+        <v>1124458</v>
+      </c>
+      <c r="AC24">
+        <v>1561898</v>
+      </c>
+      <c r="AD24">
+        <v>1425123</v>
+      </c>
+      <c r="AE24">
+        <v>729536</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>1376348</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="1"/>
+        <v>1188503.5217391304</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="2"/>
+        <v>1282425.7608695652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1886412</v>
+      </c>
+      <c r="C25">
+        <v>2454434</v>
+      </c>
+      <c r="D25">
+        <v>1067387</v>
+      </c>
+      <c r="E25">
+        <v>1198261</v>
+      </c>
+      <c r="F25">
+        <v>1129027</v>
+      </c>
+      <c r="G25">
+        <v>1731881</v>
+      </c>
+      <c r="H25">
+        <v>986342</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <v>1587335</v>
+      </c>
+      <c r="K25">
+        <v>1751493</v>
+      </c>
+      <c r="L25">
+        <v>1202154</v>
+      </c>
+      <c r="M25">
+        <v>1006105</v>
+      </c>
+      <c r="N25">
+        <v>1140843</v>
+      </c>
+      <c r="O25">
+        <v>1390695</v>
+      </c>
+      <c r="P25">
+        <v>1266620</v>
+      </c>
+      <c r="Q25">
+        <v>1051775</v>
+      </c>
+      <c r="R25">
+        <v>1667900</v>
+      </c>
+      <c r="S25">
+        <v>1020315</v>
+      </c>
+      <c r="T25">
+        <v>1168092</v>
+      </c>
+      <c r="U25">
+        <v>997264</v>
+      </c>
+      <c r="V25">
+        <v>1198297</v>
+      </c>
+      <c r="W25">
+        <v>886155</v>
+      </c>
+      <c r="X25">
+        <v>850650</v>
+      </c>
+      <c r="Y25">
+        <v>2184922</v>
+      </c>
+      <c r="Z25">
+        <v>1451651</v>
+      </c>
+      <c r="AA25">
+        <v>1010620</v>
+      </c>
+      <c r="AB25">
+        <v>1116784</v>
+      </c>
+      <c r="AC25">
+        <v>1634106</v>
+      </c>
+      <c r="AD25">
+        <v>1637421</v>
+      </c>
+      <c r="AE25">
+        <v>1003968</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="0"/>
+        <v>1493392</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="1"/>
+        <v>1292111.1739130435</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="2"/>
+        <v>1392751.5869565217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1861106</v>
+      </c>
+      <c r="C26">
+        <v>2138374</v>
+      </c>
+      <c r="D26">
+        <v>1106873</v>
+      </c>
+      <c r="E26">
+        <v>1086083</v>
+      </c>
+      <c r="F26">
+        <v>1249075</v>
+      </c>
+      <c r="G26">
+        <v>1666523</v>
+      </c>
+      <c r="H26">
+        <v>1146270</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>1263111</v>
+      </c>
+      <c r="K26">
+        <v>1648423</v>
+      </c>
+      <c r="L26">
+        <v>1402250</v>
+      </c>
+      <c r="M26">
+        <v>1001411</v>
+      </c>
+      <c r="N26">
+        <v>783825</v>
+      </c>
+      <c r="O26">
+        <v>1205233</v>
+      </c>
+      <c r="P26">
+        <v>948650</v>
+      </c>
+      <c r="Q26">
+        <v>1219861</v>
+      </c>
+      <c r="R26">
+        <v>1172436</v>
+      </c>
+      <c r="S26">
+        <v>1040725</v>
+      </c>
+      <c r="T26">
+        <v>987140</v>
+      </c>
+      <c r="U26">
+        <v>1115226</v>
+      </c>
+      <c r="V26">
+        <v>1087543</v>
+      </c>
+      <c r="W26">
+        <v>1151511</v>
+      </c>
+      <c r="X26">
+        <v>1134874</v>
+      </c>
+      <c r="Y26">
+        <v>1635332</v>
+      </c>
+      <c r="Z26">
+        <v>1472335</v>
+      </c>
+      <c r="AA26">
+        <v>1209980</v>
+      </c>
+      <c r="AB26">
+        <v>1280286</v>
+      </c>
+      <c r="AC26">
+        <v>1513566</v>
+      </c>
+      <c r="AD26">
+        <v>1297651</v>
+      </c>
+      <c r="AE26">
+        <v>920054</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="0"/>
+        <v>1464900.5714285714</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>1215492.3291925467</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="2"/>
+        <v>1340196.450310559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1744052</v>
+      </c>
+      <c r="C27">
+        <v>2292946</v>
+      </c>
+      <c r="D27">
+        <v>1009799</v>
+      </c>
+      <c r="E27">
+        <v>1079573</v>
+      </c>
+      <c r="F27">
+        <v>959131</v>
+      </c>
+      <c r="G27">
+        <v>1556295</v>
+      </c>
+      <c r="H27">
+        <v>873278</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>1554825</v>
+      </c>
+      <c r="K27">
+        <v>1736581</v>
+      </c>
+      <c r="L27">
+        <v>939072</v>
+      </c>
+      <c r="M27">
+        <v>1071771</v>
+      </c>
+      <c r="N27">
+        <v>1093095</v>
+      </c>
+      <c r="O27">
+        <v>1286383</v>
+      </c>
+      <c r="P27">
+        <v>1280582</v>
+      </c>
+      <c r="Q27">
+        <v>795991</v>
+      </c>
+      <c r="R27">
+        <v>1575954</v>
+      </c>
+      <c r="S27">
+        <v>1074127</v>
+      </c>
+      <c r="T27">
+        <v>1086648</v>
+      </c>
+      <c r="U27">
+        <v>1157060</v>
+      </c>
+      <c r="V27">
+        <v>1114089</v>
+      </c>
+      <c r="W27">
+        <v>1149813</v>
+      </c>
+      <c r="X27">
+        <v>795910</v>
+      </c>
+      <c r="Y27">
+        <v>2106040</v>
+      </c>
+      <c r="Z27">
+        <v>1208549</v>
+      </c>
+      <c r="AA27">
+        <v>986678</v>
+      </c>
+      <c r="AB27">
+        <v>783296</v>
+      </c>
+      <c r="AC27">
+        <v>1518560</v>
+      </c>
+      <c r="AD27">
+        <v>1580959</v>
+      </c>
+      <c r="AE27">
+        <v>980044</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="0"/>
+        <v>1359296.2857142857</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="1"/>
+        <v>1227622.7515527951</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="2"/>
+        <v>1293459.5186335403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1912318</v>
+      </c>
+      <c r="C28">
+        <v>2191628</v>
+      </c>
+      <c r="D28">
+        <v>1210447</v>
+      </c>
+      <c r="E28">
+        <v>1178523</v>
+      </c>
+      <c r="F28">
+        <v>1135637</v>
+      </c>
+      <c r="G28">
+        <v>1660267</v>
+      </c>
+      <c r="H28">
+        <v>1085800</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>1616591</v>
+      </c>
+      <c r="K28">
+        <v>1516491</v>
+      </c>
+      <c r="L28">
+        <v>909844</v>
+      </c>
+      <c r="M28">
+        <v>1375381</v>
+      </c>
+      <c r="N28">
+        <v>1266893</v>
+      </c>
+      <c r="O28">
+        <v>1252849</v>
+      </c>
+      <c r="P28">
+        <v>1512676</v>
+      </c>
+      <c r="Q28">
+        <v>951525</v>
+      </c>
+      <c r="R28">
+        <v>1623952</v>
+      </c>
+      <c r="S28">
+        <v>1309591</v>
+      </c>
+      <c r="T28">
+        <v>1091842</v>
+      </c>
+      <c r="U28">
+        <v>1145852</v>
+      </c>
+      <c r="V28">
+        <v>1393813</v>
+      </c>
+      <c r="W28">
+        <v>1248711</v>
+      </c>
+      <c r="X28">
+        <v>981080</v>
+      </c>
+      <c r="Y28">
+        <v>1915072</v>
+      </c>
+      <c r="Z28">
+        <v>1131711</v>
+      </c>
+      <c r="AA28">
+        <v>1101746</v>
+      </c>
+      <c r="AB28">
+        <v>1050220</v>
+      </c>
+      <c r="AC28">
+        <v>1433626</v>
+      </c>
+      <c r="AD28">
+        <v>1361337</v>
+      </c>
+      <c r="AE28">
+        <v>1286462</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="0"/>
+        <v>1482088.5714285714</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="1"/>
+        <v>1302580.5900621118</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="2"/>
+        <v>1392334.5807453417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1726342</v>
+      </c>
+      <c r="C29">
+        <v>1975824</v>
+      </c>
+      <c r="D29">
+        <v>934649</v>
+      </c>
+      <c r="E29">
+        <v>902981</v>
+      </c>
+      <c r="F29">
+        <v>1076071</v>
+      </c>
+      <c r="G29">
+        <v>1555537</v>
+      </c>
+      <c r="H29">
+        <v>974852</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>1307229</v>
+      </c>
+      <c r="K29">
+        <v>1396503</v>
+      </c>
+      <c r="L29">
+        <v>991900</v>
+      </c>
+      <c r="M29">
+        <v>1030771</v>
+      </c>
+      <c r="N29">
+        <v>800623</v>
+      </c>
+      <c r="O29">
+        <v>894079</v>
+      </c>
+      <c r="P29">
+        <v>1120070</v>
+      </c>
+      <c r="Q29">
+        <v>977237</v>
+      </c>
+      <c r="R29">
+        <v>1189708</v>
+      </c>
+      <c r="S29">
+        <v>1057793</v>
+      </c>
+      <c r="T29">
+        <v>734302</v>
+      </c>
+      <c r="U29">
+        <v>911058</v>
+      </c>
+      <c r="V29">
+        <v>1142229</v>
+      </c>
+      <c r="W29">
+        <v>1076573</v>
+      </c>
+      <c r="X29">
+        <v>942496</v>
+      </c>
+      <c r="Y29">
+        <v>1655450</v>
+      </c>
+      <c r="Z29">
+        <v>1188891</v>
+      </c>
+      <c r="AA29">
+        <v>987362</v>
+      </c>
+      <c r="AB29">
+        <v>1181648</v>
+      </c>
+      <c r="AC29">
+        <v>1231776</v>
+      </c>
+      <c r="AD29">
+        <v>1140205</v>
+      </c>
+      <c r="AE29">
+        <v>961920</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>1306608</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="1"/>
+        <v>1096801.3478260869</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="2"/>
+        <v>1201704.6739130435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1729958</v>
+      </c>
+      <c r="C30">
+        <v>2036486</v>
+      </c>
+      <c r="D30">
+        <v>924871</v>
+      </c>
+      <c r="E30">
+        <v>958683</v>
+      </c>
+      <c r="F30">
+        <v>1012727</v>
+      </c>
+      <c r="G30">
+        <v>1493341</v>
+      </c>
+      <c r="H30">
+        <v>970954</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>1234021</v>
+      </c>
+      <c r="K30">
+        <v>1377425</v>
+      </c>
+      <c r="L30">
+        <v>1053716</v>
+      </c>
+      <c r="M30">
+        <v>1065883</v>
+      </c>
+      <c r="N30">
+        <v>903411</v>
+      </c>
+      <c r="O30">
+        <v>780071</v>
+      </c>
+      <c r="P30">
+        <v>1227470</v>
+      </c>
+      <c r="Q30">
+        <v>808639</v>
+      </c>
+      <c r="R30">
+        <v>1229202</v>
+      </c>
+      <c r="S30">
+        <v>1086837</v>
+      </c>
+      <c r="T30">
+        <v>907384</v>
+      </c>
+      <c r="U30">
+        <v>1173394</v>
+      </c>
+      <c r="V30">
+        <v>960353</v>
+      </c>
+      <c r="W30">
+        <v>1150189</v>
+      </c>
+      <c r="X30">
+        <v>962874</v>
+      </c>
+      <c r="Y30">
+        <v>1593144</v>
+      </c>
+      <c r="Z30">
+        <v>1274907</v>
+      </c>
+      <c r="AA30">
+        <v>942400</v>
+      </c>
+      <c r="AB30">
+        <v>993744</v>
+      </c>
+      <c r="AC30">
+        <v>1245016</v>
+      </c>
+      <c r="AD30">
+        <v>1338645</v>
+      </c>
+      <c r="AE30">
+        <v>938148</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="0"/>
+        <v>1303860</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>1110901.4347826086</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="2"/>
+        <v>1207380.7173913042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1865921</v>
+      </c>
+      <c r="C31">
+        <v>2026811</v>
+      </c>
+      <c r="D31">
+        <v>915054</v>
+      </c>
+      <c r="E31">
+        <v>1012374</v>
+      </c>
+      <c r="F31">
+        <v>1068082</v>
+      </c>
+      <c r="G31">
+        <v>1449910</v>
+      </c>
+      <c r="H31">
+        <v>1013307</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>990058</v>
+      </c>
+      <c r="K31">
+        <v>1611964</v>
+      </c>
+      <c r="L31">
+        <v>1234025</v>
+      </c>
+      <c r="M31">
+        <v>1026094</v>
+      </c>
+      <c r="N31">
+        <v>914392</v>
+      </c>
+      <c r="O31">
+        <v>772746</v>
+      </c>
+      <c r="P31">
+        <v>1098743</v>
+      </c>
+      <c r="Q31">
+        <v>1027978</v>
+      </c>
+      <c r="R31">
+        <v>1022501</v>
+      </c>
+      <c r="S31">
+        <v>938336</v>
+      </c>
+      <c r="T31">
+        <v>980655</v>
+      </c>
+      <c r="U31">
+        <v>1196411</v>
+      </c>
+      <c r="V31">
+        <v>791382</v>
+      </c>
+      <c r="W31">
+        <v>1084168</v>
+      </c>
+      <c r="X31">
+        <v>859923</v>
+      </c>
+      <c r="Y31">
+        <v>1519793</v>
+      </c>
+      <c r="Z31">
+        <v>1575346</v>
+      </c>
+      <c r="AA31">
+        <v>871555</v>
+      </c>
+      <c r="AB31">
+        <v>1042695</v>
+      </c>
+      <c r="AC31">
+        <v>1308733</v>
+      </c>
+      <c r="AD31">
+        <v>1389226</v>
+      </c>
+      <c r="AE31">
+        <v>718529</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>1335922.7142857143</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="1"/>
+        <v>1100485.900621118</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="2"/>
+        <v>1218204.3074534163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1657551</v>
+      </c>
+      <c r="C32">
+        <v>1282811</v>
+      </c>
+      <c r="D32">
+        <v>1344160</v>
+      </c>
+      <c r="E32">
+        <v>1350850</v>
+      </c>
+      <c r="F32">
+        <v>1313028</v>
+      </c>
+      <c r="G32">
+        <v>867996</v>
+      </c>
+      <c r="H32">
+        <v>1374543</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>1322912</v>
+      </c>
+      <c r="K32">
+        <v>1883676</v>
+      </c>
+      <c r="L32">
+        <v>1913761</v>
+      </c>
+      <c r="M32">
+        <v>1659760</v>
+      </c>
+      <c r="N32">
+        <v>1678386</v>
+      </c>
+      <c r="O32">
+        <v>1598070</v>
+      </c>
+      <c r="P32">
+        <v>1599617</v>
+      </c>
+      <c r="Q32">
+        <v>1564910</v>
+      </c>
+      <c r="R32">
+        <v>1574909</v>
+      </c>
+      <c r="S32">
+        <v>1515660</v>
+      </c>
+      <c r="T32">
+        <v>1564331</v>
+      </c>
+      <c r="U32">
+        <v>1721741</v>
+      </c>
+      <c r="V32">
+        <v>1412564</v>
+      </c>
+      <c r="W32">
+        <v>1672912</v>
+      </c>
+      <c r="X32">
+        <v>1492483</v>
+      </c>
+      <c r="Y32">
+        <v>1771055</v>
+      </c>
+      <c r="Z32">
+        <v>1873554</v>
+      </c>
+      <c r="AA32">
+        <v>1499249</v>
+      </c>
+      <c r="AB32">
+        <v>1531065</v>
+      </c>
+      <c r="AC32">
+        <v>1963955</v>
+      </c>
+      <c r="AD32">
+        <v>1765954</v>
+      </c>
+      <c r="AE32">
+        <v>1458747</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="0"/>
+        <v>1312991.2857142857</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="1"/>
+        <v>1624011.4037267079</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="2"/>
+        <v>1468501.3447204968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1832972</v>
+      </c>
+      <c r="C33">
+        <v>2388910</v>
+      </c>
+      <c r="D33">
+        <v>1140431</v>
+      </c>
+      <c r="E33">
+        <v>1228963</v>
+      </c>
+      <c r="F33">
+        <v>1085163</v>
+      </c>
+      <c r="G33">
+        <v>1634341</v>
+      </c>
+      <c r="H33">
+        <v>1026502</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>1717579</v>
+      </c>
+      <c r="K33">
+        <v>1844373</v>
+      </c>
+      <c r="L33">
+        <v>1301882</v>
+      </c>
+      <c r="M33">
+        <v>1285779</v>
+      </c>
+      <c r="N33">
+        <v>1311087</v>
+      </c>
+      <c r="O33">
+        <v>1493309</v>
+      </c>
+      <c r="P33">
+        <v>1405966</v>
+      </c>
+      <c r="Q33">
+        <v>959445</v>
+      </c>
+      <c r="R33">
+        <v>1793770</v>
+      </c>
+      <c r="S33">
+        <v>1249637</v>
+      </c>
+      <c r="T33">
+        <v>1331038</v>
+      </c>
+      <c r="U33">
+        <v>1186448</v>
+      </c>
+      <c r="V33">
+        <v>1350425</v>
+      </c>
+      <c r="W33">
+        <v>1269195</v>
+      </c>
+      <c r="X33">
+        <v>1006756</v>
+      </c>
+      <c r="Y33">
+        <v>2300176</v>
+      </c>
+      <c r="Z33">
+        <v>1358067</v>
+      </c>
+      <c r="AA33">
+        <v>1164966</v>
+      </c>
+      <c r="AB33">
+        <v>1047284</v>
+      </c>
+      <c r="AC33">
+        <v>1763244</v>
+      </c>
+      <c r="AD33">
+        <v>1647337</v>
+      </c>
+      <c r="AE33">
+        <v>1127278</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="0"/>
+        <v>1476754.5714285714</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="1"/>
+        <v>1408338.9378881988</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="2"/>
+        <v>1442546.7546583852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1561383</v>
+      </c>
+      <c r="C34">
+        <v>1118507</v>
+      </c>
+      <c r="D34">
+        <v>1342296</v>
+      </c>
+      <c r="E34">
+        <v>1294428</v>
+      </c>
+      <c r="F34">
+        <v>1252490</v>
+      </c>
+      <c r="G34">
+        <v>749700</v>
+      </c>
+      <c r="H34">
+        <v>1344235</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>1313230</v>
+      </c>
+      <c r="K34">
+        <v>1841484</v>
+      </c>
+      <c r="L34">
+        <v>1805885</v>
+      </c>
+      <c r="M34">
+        <v>1737988</v>
+      </c>
+      <c r="N34">
+        <v>1638766</v>
+      </c>
+      <c r="O34">
+        <v>1534888</v>
+      </c>
+      <c r="P34">
+        <v>1626801</v>
+      </c>
+      <c r="Q34">
+        <v>1492920</v>
+      </c>
+      <c r="R34">
+        <v>1557161</v>
+      </c>
+      <c r="S34">
+        <v>1592994</v>
+      </c>
+      <c r="T34">
+        <v>1545223</v>
+      </c>
+      <c r="U34">
+        <v>1812521</v>
+      </c>
+      <c r="V34">
+        <v>1407300</v>
+      </c>
+      <c r="W34">
+        <v>1801208</v>
+      </c>
+      <c r="X34">
+        <v>1478119</v>
+      </c>
+      <c r="Y34">
+        <v>1747763</v>
+      </c>
+      <c r="Z34">
+        <v>1790820</v>
+      </c>
+      <c r="AA34">
+        <v>1511865</v>
+      </c>
+      <c r="AB34">
+        <v>1425037</v>
+      </c>
+      <c r="AC34">
+        <v>1889025</v>
+      </c>
+      <c r="AD34">
+        <v>1752058</v>
+      </c>
+      <c r="AE34">
+        <v>1493039</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="0"/>
+        <v>1237577</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="1"/>
+        <v>1610159.6521739131</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="2"/>
+        <v>1423868.3260869565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1648334</v>
+      </c>
+      <c r="C35">
+        <v>2144660</v>
+      </c>
+      <c r="D35">
+        <v>1129951</v>
+      </c>
+      <c r="E35">
+        <v>1134859</v>
+      </c>
+      <c r="F35">
+        <v>1020001</v>
+      </c>
+      <c r="G35">
+        <v>1465029</v>
+      </c>
+      <c r="H35">
+        <v>977508</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>1601581</v>
+      </c>
+      <c r="K35">
+        <v>1762389</v>
+      </c>
+      <c r="L35">
+        <v>1144320</v>
+      </c>
+      <c r="M35">
+        <v>1370147</v>
+      </c>
+      <c r="N35">
+        <v>1395367</v>
+      </c>
+      <c r="O35">
+        <v>1423509</v>
+      </c>
+      <c r="P35">
+        <v>1520292</v>
+      </c>
+      <c r="Q35">
+        <v>836515</v>
+      </c>
+      <c r="R35">
+        <v>1657924</v>
+      </c>
+      <c r="S35">
+        <v>1263209</v>
+      </c>
+      <c r="T35">
+        <v>1308648</v>
+      </c>
+      <c r="U35">
+        <v>1480218</v>
+      </c>
+      <c r="V35">
+        <v>1280813</v>
+      </c>
+      <c r="W35">
+        <v>1388801</v>
+      </c>
+      <c r="X35">
+        <v>1000968</v>
+      </c>
+      <c r="Y35">
+        <v>2065542</v>
+      </c>
+      <c r="Z35">
+        <v>1198397</v>
+      </c>
+      <c r="AA35">
+        <v>1142846</v>
+      </c>
+      <c r="AB35">
+        <v>835536</v>
+      </c>
+      <c r="AC35">
+        <v>1641942</v>
+      </c>
+      <c r="AD35">
+        <v>1711325</v>
+      </c>
+      <c r="AE35">
+        <v>1195450</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>1360048.857142857</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="1"/>
+        <v>1373295.1242236025</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="2"/>
+        <v>1366671.9906832296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1738641</v>
+      </c>
+      <c r="C36">
+        <v>1146211</v>
+      </c>
+      <c r="D36">
+        <v>1572696</v>
+      </c>
+      <c r="E36">
+        <v>1470462</v>
+      </c>
+      <c r="F36">
+        <v>1476102</v>
+      </c>
+      <c r="G36">
+        <v>942220</v>
+      </c>
+      <c r="H36">
+        <v>1581133</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>1401162</v>
+      </c>
+      <c r="K36">
+        <v>1714414</v>
+      </c>
+      <c r="L36">
+        <v>1816671</v>
+      </c>
+      <c r="M36">
+        <v>1994314</v>
+      </c>
+      <c r="N36">
+        <v>1808194</v>
+      </c>
+      <c r="O36">
+        <v>1550038</v>
+      </c>
+      <c r="P36">
+        <v>1843737</v>
+      </c>
+      <c r="Q36">
+        <v>1673268</v>
+      </c>
+      <c r="R36">
+        <v>1650453</v>
+      </c>
+      <c r="S36">
+        <v>1820834</v>
+      </c>
+      <c r="T36">
+        <v>1641201</v>
+      </c>
+      <c r="U36">
+        <v>1864107</v>
+      </c>
+      <c r="V36">
+        <v>1659694</v>
+      </c>
+      <c r="W36">
+        <v>1963220</v>
+      </c>
+      <c r="X36">
+        <v>1706521</v>
+      </c>
+      <c r="Y36">
+        <v>1625091</v>
+      </c>
+      <c r="Z36">
+        <v>1756780</v>
+      </c>
+      <c r="AA36">
+        <v>1646627</v>
+      </c>
+      <c r="AB36">
+        <v>1689507</v>
+      </c>
+      <c r="AC36">
+        <v>1855953</v>
+      </c>
+      <c r="AD36">
+        <v>1595442</v>
+      </c>
+      <c r="AE36">
+        <v>1755123</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="0"/>
+        <v>1418209.2857142857</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="1"/>
+        <v>1715241.7515527948</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="2"/>
+        <v>1566725.5186335403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1914409</v>
+      </c>
+      <c r="C37">
+        <v>2106811</v>
+      </c>
+      <c r="D37">
+        <v>1384556</v>
+      </c>
+      <c r="E37">
+        <v>1343860</v>
+      </c>
+      <c r="F37">
+        <v>1244408</v>
+      </c>
+      <c r="G37">
+        <v>1635942</v>
+      </c>
+      <c r="H37">
+        <v>1220655</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>1817116</v>
+      </c>
+      <c r="K37">
+        <v>1621124</v>
+      </c>
+      <c r="L37">
+        <v>1257947</v>
+      </c>
+      <c r="M37">
+        <v>1611332</v>
+      </c>
+      <c r="N37">
+        <v>1570756</v>
+      </c>
+      <c r="O37">
+        <v>1564858</v>
+      </c>
+      <c r="P37">
+        <v>1797537</v>
+      </c>
+      <c r="Q37">
+        <v>1094416</v>
+      </c>
+      <c r="R37">
+        <v>1856085</v>
+      </c>
+      <c r="S37">
+        <v>1583532</v>
+      </c>
+      <c r="T37">
+        <v>1401843</v>
+      </c>
+      <c r="U37">
+        <v>1600099</v>
+      </c>
+      <c r="V37">
+        <v>1551586</v>
+      </c>
+      <c r="W37">
+        <v>1656488</v>
+      </c>
+      <c r="X37">
+        <v>1246507</v>
+      </c>
+      <c r="Y37">
+        <v>1959067</v>
+      </c>
+      <c r="Z37">
+        <v>1151630</v>
+      </c>
+      <c r="AA37">
+        <v>1406229</v>
+      </c>
+      <c r="AB37">
+        <v>1231085</v>
+      </c>
+      <c r="AC37">
+        <v>1674635</v>
+      </c>
+      <c r="AD37">
+        <v>1595714</v>
+      </c>
+      <c r="AE37">
+        <v>1499917</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="0"/>
+        <v>1550091.5714285714</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="1"/>
+        <v>1534764.9813664597</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="2"/>
+        <v>1542428.2763975156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1806073</v>
+      </c>
+      <c r="C38">
+        <v>1202909</v>
+      </c>
+      <c r="D38">
+        <v>1614626</v>
+      </c>
+      <c r="E38">
+        <v>1513250</v>
+      </c>
+      <c r="F38">
+        <v>1621590</v>
+      </c>
+      <c r="G38">
+        <v>1101544</v>
+      </c>
+      <c r="H38">
+        <v>1696119</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>1399804</v>
+      </c>
+      <c r="K38">
+        <v>1825522</v>
+      </c>
+      <c r="L38">
+        <v>1891763</v>
+      </c>
+      <c r="M38">
+        <v>1964398</v>
+      </c>
+      <c r="N38">
+        <v>1766756</v>
+      </c>
+      <c r="O38">
+        <v>1508704</v>
+      </c>
+      <c r="P38">
+        <v>1789245</v>
+      </c>
+      <c r="Q38">
+        <v>1851686</v>
+      </c>
+      <c r="R38">
+        <v>1533713</v>
+      </c>
+      <c r="S38">
+        <v>1841676</v>
+      </c>
+      <c r="T38">
+        <v>1585281</v>
+      </c>
+      <c r="U38">
+        <v>1905045</v>
+      </c>
+      <c r="V38">
+        <v>1710556</v>
+      </c>
+      <c r="W38">
+        <v>1997110</v>
+      </c>
+      <c r="X38">
+        <v>1850207</v>
+      </c>
+      <c r="Y38">
+        <v>1631613</v>
+      </c>
+      <c r="Z38">
+        <v>1921044</v>
+      </c>
+      <c r="AA38">
+        <v>1737407</v>
+      </c>
+      <c r="AB38">
+        <v>1888737</v>
+      </c>
+      <c r="AC38">
+        <v>1877207</v>
+      </c>
+      <c r="AD38">
+        <v>1630928</v>
+      </c>
+      <c r="AE38">
+        <v>1765757</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>1508015.857142857</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="1"/>
+        <v>1755746.7329192548</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="2"/>
+        <v>1631881.2950310558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1613308</v>
+      </c>
+      <c r="C39">
+        <v>1773416</v>
+      </c>
+      <c r="D39">
+        <v>1133089</v>
+      </c>
+      <c r="E39">
+        <v>1164593</v>
+      </c>
+      <c r="F39">
+        <v>1192399</v>
+      </c>
+      <c r="G39">
+        <v>1408107</v>
+      </c>
+      <c r="H39">
+        <v>1102890</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>1304789</v>
+      </c>
+      <c r="K39">
+        <v>1605183</v>
+      </c>
+      <c r="L39">
+        <v>1504402</v>
+      </c>
+      <c r="M39">
+        <v>1327105</v>
+      </c>
+      <c r="N39">
+        <v>1344415</v>
+      </c>
+      <c r="O39">
+        <v>1323455</v>
+      </c>
+      <c r="P39">
+        <v>1382750</v>
+      </c>
+      <c r="Q39">
+        <v>1331775</v>
+      </c>
+      <c r="R39">
+        <v>1377444</v>
+      </c>
+      <c r="S39">
+        <v>1139955</v>
+      </c>
+      <c r="T39">
+        <v>1218204</v>
+      </c>
+      <c r="U39">
+        <v>1393962</v>
+      </c>
+      <c r="V39">
+        <v>1229671</v>
+      </c>
+      <c r="W39">
+        <v>1321615</v>
+      </c>
+      <c r="X39">
+        <v>1090346</v>
+      </c>
+      <c r="Y39">
+        <v>1563412</v>
+      </c>
+      <c r="Z39">
+        <v>1580745</v>
+      </c>
+      <c r="AA39">
+        <v>1167614</v>
+      </c>
+      <c r="AB39">
+        <v>1278214</v>
+      </c>
+      <c r="AC39">
+        <v>1618880</v>
+      </c>
+      <c r="AD39">
+        <v>1705473</v>
+      </c>
+      <c r="AE39">
+        <v>1172980</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>1341114.5714285714</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="1"/>
+        <v>1361891.4596273291</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="2"/>
+        <v>1351503.0155279501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1776143</v>
+      </c>
+      <c r="C40">
+        <v>1233997</v>
+      </c>
+      <c r="D40">
+        <v>1569534</v>
+      </c>
+      <c r="E40">
+        <v>1512238</v>
+      </c>
+      <c r="F40">
+        <v>1564900</v>
+      </c>
+      <c r="G40">
+        <v>1019556</v>
+      </c>
+      <c r="H40">
+        <v>1655581</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>1335062</v>
+      </c>
+      <c r="K40">
+        <v>1775360</v>
+      </c>
+      <c r="L40">
+        <v>1989941</v>
+      </c>
+      <c r="M40">
+        <v>1922494</v>
+      </c>
+      <c r="N40">
+        <v>1768826</v>
+      </c>
+      <c r="O40">
+        <v>1445318</v>
+      </c>
+      <c r="P40">
+        <v>1773223</v>
+      </c>
+      <c r="Q40">
+        <v>1745552</v>
+      </c>
+      <c r="R40">
+        <v>1555313</v>
+      </c>
+      <c r="S40">
+        <v>1810282</v>
+      </c>
+      <c r="T40">
+        <v>1663275</v>
+      </c>
+      <c r="U40">
+        <v>1995871</v>
+      </c>
+      <c r="V40">
+        <v>1578188</v>
+      </c>
+      <c r="W40">
+        <v>2026164</v>
+      </c>
+      <c r="X40">
+        <v>1826797</v>
+      </c>
+      <c r="Y40">
+        <v>1589407</v>
+      </c>
+      <c r="Z40">
+        <v>1982948</v>
+      </c>
+      <c r="AA40">
+        <v>1693705</v>
+      </c>
+      <c r="AB40">
+        <v>1782383</v>
+      </c>
+      <c r="AC40">
+        <v>1884597</v>
+      </c>
+      <c r="AD40">
+        <v>1742454</v>
+      </c>
+      <c r="AE40">
+        <v>1721047</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>1475992.7142857143</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="1"/>
+        <v>1742791.2919254659</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="2"/>
+        <v>1609392.0031055901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1631105</v>
+      </c>
+      <c r="C41">
+        <v>1716803</v>
+      </c>
+      <c r="D41">
+        <v>1303510</v>
+      </c>
+      <c r="E41">
+        <v>1252466</v>
+      </c>
+      <c r="F41">
+        <v>1187824</v>
+      </c>
+      <c r="G41">
+        <v>1332318</v>
+      </c>
+      <c r="H41">
+        <v>1303585</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>1456446</v>
+      </c>
+      <c r="K41">
+        <v>1562674</v>
+      </c>
+      <c r="L41">
+        <v>1568545</v>
+      </c>
+      <c r="M41">
+        <v>1672720</v>
+      </c>
+      <c r="N41">
+        <v>1442138</v>
+      </c>
+      <c r="O41">
+        <v>1470728</v>
+      </c>
+      <c r="P41">
+        <v>1560491</v>
+      </c>
+      <c r="Q41">
+        <v>1175404</v>
+      </c>
+      <c r="R41">
+        <v>1436859</v>
+      </c>
+      <c r="S41">
+        <v>1536450</v>
+      </c>
+      <c r="T41">
+        <v>1378075</v>
+      </c>
+      <c r="U41">
+        <v>1624437</v>
+      </c>
+      <c r="V41">
+        <v>1365510</v>
+      </c>
+      <c r="W41">
+        <v>1677628</v>
+      </c>
+      <c r="X41">
+        <v>1352909</v>
+      </c>
+      <c r="Y41">
+        <v>1683631</v>
+      </c>
+      <c r="Z41">
+        <v>1417548</v>
+      </c>
+      <c r="AA41">
+        <v>1466895</v>
+      </c>
+      <c r="AB41">
+        <v>1230833</v>
+      </c>
+      <c r="AC41">
+        <v>1798285</v>
+      </c>
+      <c r="AD41">
+        <v>1558762</v>
+      </c>
+      <c r="AE41">
+        <v>1439225</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>1389658.7142857143</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="1"/>
+        <v>1489819.6397515528</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="2"/>
+        <v>1439739.1770186336</v>
       </c>
     </row>
   </sheetData>
